--- a/code_generate_figures/save_data/10-fold_cv_res.xlsx
+++ b/code_generate_figures/save_data/10-fold_cv_res.xlsx
@@ -6,14 +6,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="10-fold_cv_res" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10-fold_cv_res_fig3a" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="feature_importance" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,73 +21,394 @@
     <t xml:space="preserve">setting</t>
   </si>
   <si>
-    <t xml:space="preserve">metrics</t>
+    <t xml:space="preserve">metric</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">sd</t>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ_TMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">MQ_TMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1</t>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mcc</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
   </si>
   <si>
     <t xml:space="preserve">FG_TMT</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
   </si>
   <si>
     <t xml:space="preserve">FG_DDA</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
   </si>
   <si>
     <t xml:space="preserve">MQ_DDA</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
   </si>
   <si>
     <t xml:space="preserve">DIANN_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
   </si>
   <si>
     <t xml:space="preserve">spt_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
   </si>
   <si>
     <t xml:space="preserve">feature</t>
@@ -102,61 +423,16 @@
     <t xml:space="preserve">importance</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEA</t>
   </si>
   <si>
     <t xml:space="preserve">Matrix</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">MVI</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">norm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
   </si>
 </sst>
 </file>
@@ -501,212 +777,1685 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.02</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.02</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.02</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
         <v>0.89</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.02</v>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" t="s">
+        <v>112</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -731,27 +2480,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D2" t="n">
         <v>40.9876783782618</v>
@@ -765,13 +2514,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,13 +2534,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D4" t="n">
         <v>13.796315720731</v>
@@ -805,13 +2554,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
         <v>45.2160059010072</v>
@@ -825,13 +2574,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D6" t="n">
         <v>28.4582012773222</v>
@@ -845,13 +2594,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D7" t="n">
         <v>23.7359788278973</v>
@@ -865,13 +2614,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D8" t="n">
         <v>9.49139867936308</v>
@@ -885,13 +2634,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D9" t="n">
         <v>38.3144212154174</v>
@@ -905,173 +2654,173 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D10" t="n">
-        <v>30.9097394658618</v>
+        <v>29.01521565092</v>
       </c>
       <c r="E10" t="n">
-        <v>84.55</v>
+        <v>85.49</v>
       </c>
       <c r="F10" t="n">
-        <v>30.91</v>
+        <v>29.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D11" t="n">
-        <v>13.5110443245007</v>
+        <v>15.6501505513552</v>
       </c>
       <c r="E11" t="n">
-        <v>62.33</v>
+        <v>63.16</v>
       </c>
       <c r="F11" t="n">
-        <v>13.51</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D12" t="n">
-        <v>21.8755904417247</v>
+        <v>21.6276018001769</v>
       </c>
       <c r="E12" t="n">
-        <v>44.64</v>
+        <v>44.52</v>
       </c>
       <c r="F12" t="n">
-        <v>21.88</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D13" t="n">
-        <v>33.7036257679128</v>
+        <v>33.7070319975478</v>
       </c>
       <c r="E13" t="n">
         <v>16.85</v>
       </c>
       <c r="F13" t="n">
-        <v>33.7</v>
+        <v>33.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D14" t="n">
-        <v>34.0965265111991</v>
+        <v>29.4991841765082</v>
       </c>
       <c r="E14" t="n">
-        <v>82.95</v>
+        <v>85.25</v>
       </c>
       <c r="F14" t="n">
-        <v>34.1</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D15" t="n">
-        <v>12.2986285935564</v>
+        <v>13.946552605005</v>
       </c>
       <c r="E15" t="n">
-        <v>59.75</v>
+        <v>63.53</v>
       </c>
       <c r="F15" t="n">
-        <v>12.3</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D16" t="n">
-        <v>21.3007082260456</v>
+        <v>23.3918104589854</v>
       </c>
       <c r="E16" t="n">
-        <v>42.95</v>
+        <v>44.86</v>
       </c>
       <c r="F16" t="n">
-        <v>21.3</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D17" t="n">
-        <v>32.3041366691989</v>
+        <v>33.1624527595015</v>
       </c>
       <c r="E17" t="n">
-        <v>16.15</v>
+        <v>16.58</v>
       </c>
       <c r="F17" t="n">
-        <v>32.3</v>
+        <v>33.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D18" t="n">
         <v>25.6777678234483</v>
@@ -1085,13 +2834,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D19" t="n">
         <v>25.3560076005236</v>
@@ -1105,13 +2854,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D20" t="n">
         <v>20.3497341191773</v>
@@ -1125,13 +2874,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D21" t="n">
         <v>28.6164904568508</v>
@@ -1145,82 +2894,82 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D22" t="n">
-        <v>26.5723721998075</v>
+        <v>30.8378624041749</v>
       </c>
       <c r="E22" t="n">
-        <v>86.71</v>
+        <v>84.58</v>
       </c>
       <c r="F22" t="n">
-        <v>26.57</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D23" t="n">
-        <v>29.3742783979783</v>
+        <v>21.7269920752991</v>
       </c>
       <c r="E23" t="n">
-        <v>58.74</v>
+        <v>58.3</v>
       </c>
       <c r="F23" t="n">
-        <v>29.37</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D24" t="n">
-        <v>14.0993898601414</v>
+        <v>15.9680384916566</v>
       </c>
       <c r="E24" t="n">
-        <v>37</v>
+        <v>39.45</v>
       </c>
       <c r="F24" t="n">
-        <v>14.1</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D25" t="n">
-        <v>29.9539595420728</v>
+        <v>31.4671070288693</v>
       </c>
       <c r="E25" t="n">
-        <v>14.98</v>
+        <v>15.73</v>
       </c>
       <c r="F25" t="n">
-        <v>29.95</v>
+        <v>31.47</v>
       </c>
     </row>
   </sheetData>
